--- a/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250109.xlsx
+++ b/9998.팀프로젝트/00.프로젝트 관리/프로젝트 계획서_250109.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="94">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +457,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 피그마 프로토타이핑
+- 타이핑애니 컴포넌트 제작
+2. 깃허브 , 피그마 팀내 연결
+3. 회의진행 및 회의록 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양현석,전정훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namesake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential for Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. 발사믹
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 발사믹
+- 넘버링, 네이밍 진행하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+2. 자료수집
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 피그마에도 써야하므로 우선적 진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 필요한 행성 정보 ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 회전 비디오? ,</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 3D 모델 수집 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 발사믹
 - 추후 공통영역 합치기
-- 넘버링, 네이밍 진행하기
+- 넘버링, 네이밍 진행하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -482,46 +625,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 피그마 프로토타이핑
-- 타이핑애니 컴포넌트 제작
-2. 깃허브 , 피그마 팀내 연결
-3. 회의진행 및 회의록 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전정훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양현석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양현석,전정훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namesake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potential for Life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 발사믹
-- 넘버링, 네이밍 진행하기
-2. 자료수집
-- 피그마에도 써야하므로 우선적 진행
-- 필요한 행성 정보 , 회전 비디오? , 3D 모델 수집 </t>
+    <t>1. 자료수집
+- 회전 비디오
+2. 담당 분석설계 자료 및 소스 깃허브 업데이트
+3. Mercury 코딩 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익일 회의 진행예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 피그마 프로토타이핑
+- Mecury , Venus , Earth , Mars , Jupiter , Saturn , Uranus , Neptune 완료 =&gt; 서브페이지 컨텐츠 완료, 추후 공통영역 레이아웃 나오면 공통영역, (BGM) 등 추가하여 마무리 
+- 메인페이지 발사믹 공유 받으면 메인페이지 진행
+2. 발사믹 와이어프레임
+- 네이밍및 넘버링 , 추가 보완
+3. 회의안건 정리
+4. 자료수집
+- BGM , 컨텐츠 텍스트 , 이미지 수집
+5. 소스 네이밍 및 점검
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,6 +1401,54 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,52 +1485,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,15 +1501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2457,12 +2581,12 @@
   <sheetData>
     <row r="1" spans="2:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="20"/>
@@ -2478,7 +2602,7 @@
       </c>
       <c r="F3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="21" t="s">
@@ -2489,60 +2613,60 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="67">
         <v>45670</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
     </row>
     <row r="5" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="19">
         <f>J4</f>
         <v>45670</v>
@@ -2617,14 +2741,14 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="65"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="58"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="31">
         <f>J5</f>
         <v>45670</v>
@@ -2710,8 +2834,8 @@
       <c r="F7" s="11">
         <v>45698</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>84</v>
+      <c r="G7" s="66" t="s">
+        <v>83</v>
       </c>
       <c r="H7" s="22">
         <f>IF(F7="","",F7+1-E7)</f>
@@ -2751,7 +2875,7 @@
       <c r="F8" s="11">
         <v>45698</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="22">
         <f t="shared" ref="H8:H36" si="3">IF(F8="","",F8+1-E8)</f>
         <v>29</v>
@@ -2792,7 +2916,7 @@
       <c r="F9" s="11">
         <v>45698</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2829,7 +2953,7 @@
       <c r="F10" s="11">
         <v>45698</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2868,7 +2992,7 @@
       <c r="F11" s="11">
         <v>45698</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2905,7 +3029,7 @@
       <c r="F12" s="11">
         <v>45698</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -2944,8 +3068,8 @@
       <c r="F13" s="11">
         <v>45674</v>
       </c>
-      <c r="G13" s="47" t="s">
-        <v>85</v>
+      <c r="G13" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="3"/>
@@ -2987,7 +3111,7 @@
       <c r="F14" s="11">
         <v>45674</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3028,7 +3152,7 @@
       <c r="F15" s="11">
         <v>45674</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="22">
         <f t="shared" ref="H15:H26" si="4">IF(F15="","",F15+1-E15)</f>
         <v>5</v>
@@ -3067,7 +3191,7 @@
       <c r="F16" s="11">
         <v>45674</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3096,7 +3220,7 @@
     </row>
     <row r="17" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="18"/>
@@ -3106,7 +3230,7 @@
       <c r="F17" s="11">
         <v>45674</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3135,7 +3259,7 @@
     </row>
     <row r="18" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="18"/>
@@ -3145,7 +3269,7 @@
       <c r="F18" s="11">
         <v>45674</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3174,7 +3298,7 @@
     </row>
     <row r="19" spans="2:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="18"/>
@@ -3184,7 +3308,7 @@
       <c r="F19" s="11">
         <v>45674</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3223,7 +3347,7 @@
       <c r="F20" s="11">
         <v>45674</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3264,7 +3388,7 @@
       <c r="F21" s="11">
         <v>45674</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3305,7 +3429,7 @@
       <c r="F22" s="11">
         <v>45674</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3346,7 +3470,7 @@
       <c r="F23" s="11">
         <v>45674</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3387,7 +3511,7 @@
       <c r="F24" s="11">
         <v>45674</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3428,7 +3552,7 @@
       <c r="F25" s="11">
         <v>45674</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3469,7 +3593,7 @@
       <c r="F26" s="11">
         <v>45678</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3508,7 +3632,7 @@
       <c r="F27" s="11">
         <v>45678</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3549,7 +3673,7 @@
       <c r="F28" s="11">
         <v>45678</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3590,7 +3714,7 @@
       <c r="F29" s="11">
         <v>45680</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3631,7 +3755,7 @@
       <c r="F30" s="11">
         <v>45680</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3672,7 +3796,7 @@
       <c r="F31" s="11">
         <v>45684</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3713,7 +3837,7 @@
       <c r="F32" s="11">
         <v>45680</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="22">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -3753,7 +3877,7 @@
         <v>45694</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" s="22">
         <f t="shared" si="3"/>
@@ -3900,18 +4024,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G13:G32"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="J4:AA4"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="G13:G32"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="J4:AA4"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J5:AA36">
@@ -4273,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4282,7 +4406,7 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="63.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
     <col min="6" max="7" width="63.875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
@@ -4292,16 +4416,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4311,7 +4435,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4324,126 +4448,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78"/>
-      <c r="C4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="75" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="79"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4516,7 +4640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="312" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>45</v>
       </c>
@@ -4524,9 +4648,11 @@
         <v>80</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="F8" s="27"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -4599,123 +4725,123 @@
       <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="75" t="s">
+      <c r="B12" s="75"/>
+      <c r="C12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="79"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -4819,123 +4945,123 @@
       <c r="X17" s="40"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X18" s="75" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="79"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="80"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="80"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5013,12 +5139,14 @@
         <v>48</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="44"/>
+        <v>89</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>91</v>
+      </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -5070,123 +5198,123 @@
       <c r="X24" s="40"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="V25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X25" s="75" t="s">
+      <c r="B25" s="75"/>
+      <c r="C25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="79"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="79"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="80"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="80"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5267,7 +5395,9 @@
         <v>79</v>
       </c>
       <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="27" t="s">
+        <v>92</v>
+      </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -5293,6 +5423,83 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5309,83 +5516,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
